--- a/风险列表.xlsx
+++ b/风险列表.xlsx
@@ -44,7 +44,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <r>
       <t xml:space="preserve">使用说明：
@@ -308,12 +308,16 @@
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>风险列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +408,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -485,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -635,11 +646,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -739,54 +779,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -817,13 +816,66 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -913,6 +965,7 @@
       <sheetName val="项目预算表"/>
       <sheetName val="项目偏差记录"/>
       <sheetName val="Ref"/>
+      <sheetName val="风险列表"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1117,6 +1170,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="25"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1385,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1400,149 +1454,93 @@
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="63"/>
+    </row>
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+    </row>
+    <row r="4" spans="1:17" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C4" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D4" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G4" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H4" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I4" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L4" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M4" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="O4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q4" s="35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="66" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+    <row r="5" spans="1:17" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B5" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37">
         <v>5</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E5" s="37">
         <v>5</v>
       </c>
-      <c r="F2" s="61">
-        <f t="shared" ref="F2:F10" si="0">D2*E2</f>
+      <c r="F5" s="37">
+        <f t="shared" ref="F5:F13" si="0">D5*E5</f>
         <v>25</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="J5" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
       <c r="M5" s="29"/>
@@ -1554,10 +1552,10 @@
     <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1576,10 +1574,10 @@
     <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1598,10 +1596,10 @@
     <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1620,10 +1618,10 @@
     <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1642,10 +1640,10 @@
     <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1661,531 +1659,598 @@
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="28">
-        <f>COUNTIF(J2:J10,"已识别")</f>
+      <c r="B16" s="28">
+        <f>COUNTIF(J5:J13,"已识别")</f>
         <v>0</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C16" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="27">
-        <f>COUNTIF(J2:J10,"规避失败")</f>
+      <c r="D16" s="55"/>
+      <c r="E16" s="27">
+        <f>COUNTIF(J5:J13,"规避失败")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="28">
-        <f>COUNTIF(J2:J10,"未识别")</f>
+      <c r="B17" s="28">
+        <f>COUNTIF(J5:J13,"未识别")</f>
         <v>1</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C17" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="27">
-        <f>COUNTIF(J2:J10,"规避成功")</f>
+      <c r="D17" s="55"/>
+      <c r="E17" s="27">
+        <f>COUNTIF(J5:J13,"规避成功")</f>
         <v>0</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="42">
-        <f>COUNTIF(J2:J10,"异常")</f>
+      <c r="B18" s="56">
+        <f>COUNTIF(J5:J13,"异常")</f>
         <v>0</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="45">
-        <f>SUM(B13:E15)</f>
+      <c r="B19" s="59">
+        <f>SUM(B16:E18)</f>
         <v>1</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="38" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="15" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C22" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="15">
-        <v>1</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15">
-        <v>2</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="15">
-        <v>3</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B23" s="15">
-        <v>4</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
     </row>
     <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15">
+        <v>2</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="15">
+        <v>3</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B27" s="15">
         <v>5</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C27" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="38" t="s">
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B30" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C30" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="15">
-        <v>1</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="15">
-        <v>2</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="15">
-        <v>3</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B31" s="15">
-        <v>4</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="15">
+        <v>2</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="15">
+        <v>3</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="15">
+        <v>4</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="51"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B35" s="15">
         <v>5</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C35" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="51" t="s">
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="56" t="s">
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="12" t="s">
+      <c r="B38" s="44"/>
+      <c r="C38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D38" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="6" t="s">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="11"/>
+      <c r="B39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C39" s="8">
         <v>25</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D39" s="8">
         <v>20</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E39" s="8">
         <v>15</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F39" s="8">
         <v>10</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G39" s="5">
         <v>5</v>
       </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C40" s="8">
         <v>20</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D40" s="8">
         <v>16</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E40" s="8">
         <v>12</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F40" s="5">
         <v>8</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G40" s="5">
         <v>4</v>
       </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C41" s="8">
         <v>15</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D41" s="8">
         <v>12</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E41" s="5">
         <v>9</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F41" s="5">
         <v>6</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G41" s="5">
         <v>3</v>
       </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="6" t="s">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="9"/>
+      <c r="B42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C42" s="8">
         <v>10</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D42" s="5">
         <v>8</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E42" s="5">
         <v>6</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F42" s="5">
         <v>4</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G42" s="5">
         <v>2</v>
       </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6" t="s">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C43" s="5">
         <v>5</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D43" s="5">
         <v>4</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E43" s="5">
         <v>3</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F43" s="5">
         <v>2</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G43" s="5">
         <v>1</v>
       </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="58" t="s">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A42:H42"/>
+  <mergeCells count="23">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I13">
       <formula1>"项目立项,项目启动,需求开发,详细计划,系统设计,实现与测试,系统测试,系统验收,服务与维护,项目结项"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J13">
       <formula1>"已识别,规避成功,规避失败,未识别,异常"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11 E2:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D14 E5:E13">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C13">
       <formula1>"管理,商业,技术,人力资源,软硬件资源,知识技能,费用"</formula1>
     </dataValidation>
   </dataValidations>
